--- a/data/trans_orig/Q5416-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82FECF48-78CC-4737-8507-FB5EE85CBE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A613968E-0AF0-4B93-ADB7-5E440EEAAB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6BFEC4ED-4F6E-46B1-B2A2-F8801CB52848}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{31CD7D93-0D8B-4C78-A41F-D983E9BDF961}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="556">
   <si>
     <t>Población según si es capaz de moverse por su casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,7 +101,7 @@
     <t>1,97%</t>
   </si>
   <si>
-    <t>10,09%</t>
+    <t>10,77%</t>
   </si>
   <si>
     <t>En silla ruedas sin ayuda</t>
@@ -128,1600 +128,1585 @@
     <t>98,03%</t>
   </si>
   <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
     <t>89,91%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>90,58%</t>
   </si>
   <si>
     <t>94,25%</t>
   </si>
   <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>93,13%</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C12C381-0F4B-4051-A1BE-1ECB3E94DF5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BBAE67-BDB8-4B81-AB8B-DD427EFDDA9F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2601,7 +2586,7 @@
         <v>43</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,7 +2622,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2652,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,13 +2652,13 @@
         <v>83093</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" s="7">
         <v>116</v>
@@ -2682,28 +2667,28 @@
         <v>117466</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12" s="7">
         <v>204</v>
       </c>
       <c r="N12" s="7">
-        <v>200558</v>
+        <v>200559</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,7 +2730,7 @@
         <v>217</v>
       </c>
       <c r="N13" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>25</v>
@@ -2759,7 +2744,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2771,13 +2756,13 @@
         <v>1056</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2786,13 +2771,13 @@
         <v>1224</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2801,13 +2786,13 @@
         <v>2280</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2807,13 @@
         <v>2069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -2837,13 +2822,13 @@
         <v>7779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -2852,10 +2837,10 @@
         <v>9848</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>69</v>
@@ -2939,7 +2924,7 @@
         <v>171351</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>80</v>
@@ -3303,10 +3288,10 @@
         <v>116</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -3315,13 +3300,13 @@
         <v>4787</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3321,13 @@
         <v>810</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3351,13 +3336,13 @@
         <v>2057</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3369,10 +3354,10 @@
         <v>101</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3387,13 @@
         <v>3259</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3459,7 +3444,7 @@
         <v>137</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>345</v>
@@ -3468,13 +3453,13 @@
         <v>335082</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3527,13 @@
         <v>2725</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -3596,10 +3581,10 @@
         <v>150</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -3608,13 +3593,13 @@
         <v>20990</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -3623,13 +3608,13 @@
         <v>31310</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3629,13 @@
         <v>868</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -3659,13 +3644,13 @@
         <v>6710</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -3674,13 +3659,13 @@
         <v>7578</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3680,13 @@
         <v>488553</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H32" s="7">
         <v>626</v>
@@ -3710,13 +3695,13 @@
         <v>639627</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M32" s="7">
         <v>1134</v>
@@ -3725,13 +3710,13 @@
         <v>1128180</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,7 +3772,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3808,7 +3793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2E1E16-1B8F-4D60-9D4A-FF976D494D1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26E5EEC-6EF3-4DAA-99D5-9A5BC2722DE4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3825,7 +3810,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3938,7 +3923,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3947,13 +3932,13 @@
         <v>1131</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3962,13 +3947,13 @@
         <v>1131</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,7 +3974,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4004,7 +3989,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4019,7 +4004,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,7 +4025,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4055,7 +4040,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4070,7 +4055,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,7 +4073,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>25</v>
@@ -4100,10 +4085,10 @@
         <v>24063</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>23</v>
@@ -4115,10 +4100,10 @@
         <v>45261</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>23</v>
@@ -4189,13 +4174,13 @@
         <v>2125</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -4204,13 +4189,13 @@
         <v>3166</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -4219,13 +4204,13 @@
         <v>5292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4225,13 @@
         <v>2118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4255,13 +4240,13 @@
         <v>9467</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4270,13 +4255,13 @@
         <v>11585</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,7 +4282,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4312,7 +4297,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4327,7 +4312,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4327,13 @@
         <v>114107</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H12" s="7">
         <v>122</v>
@@ -4357,13 +4342,13 @@
         <v>128959</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M12" s="7">
         <v>223</v>
@@ -4372,13 +4357,13 @@
         <v>243066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,7 +4419,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4446,13 +4431,13 @@
         <v>5294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4461,13 +4446,13 @@
         <v>8841</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -4476,13 +4461,13 @@
         <v>14135</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4482,13 @@
         <v>4435</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -4512,13 +4497,13 @@
         <v>11044</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -4527,13 +4512,13 @@
         <v>15478</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4533,13 @@
         <v>1101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4569,7 +4554,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4584,7 +4569,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4584,13 @@
         <v>144049</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -4614,13 +4599,13 @@
         <v>170386</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>286</v>
@@ -4629,13 +4614,13 @@
         <v>314435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4688,13 @@
         <v>1062</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4718,13 +4703,13 @@
         <v>7688</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4733,13 +4718,13 @@
         <v>8750</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4739,13 @@
         <v>2169</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -4769,13 +4754,13 @@
         <v>5302</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -4784,13 +4769,13 @@
         <v>7470</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4790,13 @@
         <v>2269</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -4820,13 +4805,13 @@
         <v>1109</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -4835,13 +4820,13 @@
         <v>3377</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4841,13 @@
         <v>98099</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H22" s="7">
         <v>117</v>
@@ -4871,13 +4856,13 @@
         <v>126921</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M22" s="7">
         <v>203</v>
@@ -4886,13 +4871,13 @@
         <v>225020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +4945,13 @@
         <v>957</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -4975,13 +4960,13 @@
         <v>6323</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -4990,13 +4975,13 @@
         <v>7280</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +4996,13 @@
         <v>3034</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5026,13 +5011,13 @@
         <v>9230</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5041,13 +5026,13 @@
         <v>12263</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5047,13 @@
         <v>986</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5077,13 +5062,13 @@
         <v>2176</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5092,13 +5077,13 @@
         <v>3162</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5098,13 @@
         <v>156637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H27" s="7">
         <v>214</v>
@@ -5128,13 +5113,13 @@
         <v>226021</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="M27" s="7">
         <v>356</v>
@@ -5143,13 +5128,13 @@
         <v>382657</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5202,13 @@
         <v>9438</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>67</v>
+        <v>291</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -5232,13 +5217,13 @@
         <v>27149</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -5247,13 +5232,13 @@
         <v>36587</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>292</v>
+        <v>132</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5253,13 @@
         <v>11754</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>34</v>
+        <v>296</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -5283,13 +5268,13 @@
         <v>35043</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -5298,13 +5283,13 @@
         <v>46797</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>301</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5304,13 @@
         <v>4355</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -5337,10 +5322,10 @@
         <v>70</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -5349,10 +5334,10 @@
         <v>8789</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>306</v>
@@ -5373,10 +5358,10 @@
         <v>307</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H32" s="7">
         <v>633</v>
@@ -5385,13 +5370,13 @@
         <v>676349</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M32" s="7">
         <v>1114</v>
@@ -5400,13 +5385,13 @@
         <v>1210439</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,7 +5447,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5483,7 +5468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EB944A-F914-4D52-86DC-C959D2510A00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78140B4-4F9F-4D9F-9FAC-7DCB21CEDB0C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5500,7 +5485,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5607,13 +5592,13 @@
         <v>999</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5628,7 +5613,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5637,13 +5622,13 @@
         <v>999</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5649,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5679,7 +5664,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5694,7 +5679,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,7 +5715,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5870,7 +5855,7 @@
         <v>331</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>332</v>
+        <v>220</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5879,13 +5864,13 @@
         <v>2320</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>237</v>
+        <v>332</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -5897,7 +5882,7 @@
         <v>333</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>334</v>
@@ -5915,13 +5900,13 @@
         <v>4194</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5930,10 +5915,10 @@
         <v>6940</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>338</v>
@@ -5948,10 +5933,10 @@
         <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,7 +5957,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5981,13 +5966,13 @@
         <v>1131</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -5996,13 +5981,13 @@
         <v>2090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>345</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6002,13 @@
         <v>107386</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H12" s="7">
         <v>126</v>
@@ -6032,13 +6017,13 @@
         <v>139560</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M12" s="7">
         <v>241</v>
@@ -6047,13 +6032,13 @@
         <v>246946</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,7 +6094,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6121,13 +6106,13 @@
         <v>1824</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6136,13 +6121,13 @@
         <v>4530</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -6151,13 +6136,13 @@
         <v>6353</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6157,13 @@
         <v>5877</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>363</v>
+        <v>193</v>
       </c>
       <c r="H15" s="7">
         <v>11</v>
@@ -6187,13 +6172,13 @@
         <v>13722</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M15" s="7">
         <v>18</v>
@@ -6202,13 +6187,13 @@
         <v>19598</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,7 +6214,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6238,13 +6223,13 @@
         <v>1187</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -6253,13 +6238,13 @@
         <v>1187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6259,13 @@
         <v>157241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>167</v>
@@ -6289,13 +6274,13 @@
         <v>199725</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>333</v>
@@ -6304,13 +6289,13 @@
         <v>356965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,7 +6369,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6393,13 +6378,13 @@
         <v>3889</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>275</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -6408,13 +6393,13 @@
         <v>3889</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>386</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6414,13 @@
         <v>3512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>388</v>
+        <v>186</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -6444,13 +6429,13 @@
         <v>11707</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>59</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -6459,13 +6444,13 @@
         <v>15219</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,7 +6471,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6501,7 +6486,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6516,7 +6501,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,13 +6516,13 @@
         <v>111523</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H22" s="7">
         <v>106</v>
@@ -6546,13 +6531,13 @@
         <v>127000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>398</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>216</v>
@@ -6561,13 +6546,13 @@
         <v>238522</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,7 +6626,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -6650,13 +6635,13 @@
         <v>2467</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>274</v>
+        <v>400</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -6665,13 +6650,13 @@
         <v>2467</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,13 +6671,13 @@
         <v>3616</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6701,13 +6686,13 @@
         <v>11708</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>408</v>
+        <v>302</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -6716,13 +6701,13 @@
         <v>15324</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>154</v>
+        <v>407</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,13 +6722,13 @@
         <v>1664</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>413</v>
+        <v>264</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6758,7 +6743,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -6767,13 +6752,13 @@
         <v>1664</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>245</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,13 +6773,13 @@
         <v>169338</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H27" s="7">
         <v>187</v>
@@ -6803,13 +6788,13 @@
         <v>228606</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M27" s="7">
         <v>372</v>
@@ -6821,10 +6806,10 @@
         <v>82</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6877,13 @@
         <v>5329</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>424</v>
+        <v>266</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -6907,13 +6892,13 @@
         <v>13205</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -6922,13 +6907,13 @@
         <v>18534</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>428</v>
+        <v>304</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +6928,13 @@
         <v>17199</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>431</v>
+        <v>173</v>
       </c>
       <c r="H30" s="7">
         <v>35</v>
@@ -6958,13 +6943,13 @@
         <v>44077</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>59</v>
+        <v>426</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -6973,13 +6958,13 @@
         <v>61276</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>435</v>
+        <v>341</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,13 +6979,13 @@
         <v>3468</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>304</v>
+        <v>430</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -7009,13 +6994,13 @@
         <v>2318</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -7024,13 +7009,13 @@
         <v>5786</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>439</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +7030,13 @@
         <v>565332</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="H32" s="7">
         <v>608</v>
@@ -7060,13 +7045,13 @@
         <v>718330</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>444</v>
+        <v>169</v>
       </c>
       <c r="M32" s="7">
         <v>1206</v>
@@ -7075,13 +7060,13 @@
         <v>1283663</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,7 +7122,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -7158,7 +7143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5E9028-D166-4734-BC6C-88F009DBF3C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F439D9B6-7DC9-4DED-9598-D8FE5CEB4A21}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7175,7 +7160,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7282,13 +7267,13 @@
         <v>374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7297,13 +7282,13 @@
         <v>484</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>444</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -7312,13 +7297,13 @@
         <v>858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,7 +7324,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -7348,13 +7333,13 @@
         <v>2685</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -7363,13 +7348,13 @@
         <v>2685</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,7 +7375,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -7399,13 +7384,13 @@
         <v>543</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -7414,13 +7399,13 @@
         <v>543</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7435,10 +7420,10 @@
         <v>29290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>454</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
@@ -7450,13 +7435,13 @@
         <v>41709</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M7" s="7">
         <v>150</v>
@@ -7465,13 +7450,13 @@
         <v>70999</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>463</v>
+        <v>139</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7539,13 +7524,13 @@
         <v>1481</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>162</v>
+        <v>460</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>265</v>
+        <v>461</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -7554,13 +7539,13 @@
         <v>2181</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>120</v>
+        <v>463</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>466</v>
+        <v>95</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -7569,13 +7554,13 @@
         <v>3662</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>428</v>
+        <v>304</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>371</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,13 +7575,13 @@
         <v>2904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>467</v>
+        <v>104</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>331</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>468</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -7605,13 +7590,13 @@
         <v>9949</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -7620,13 +7605,13 @@
         <v>12853</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>71</v>
+        <v>468</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7647,7 +7632,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -7656,13 +7641,13 @@
         <v>1605</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -7671,13 +7656,13 @@
         <v>1605</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>475</v>
+        <v>303</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7692,13 +7677,13 @@
         <v>120592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H12" s="7">
         <v>303</v>
@@ -7707,13 +7692,13 @@
         <v>133484</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>106</v>
+        <v>478</v>
       </c>
       <c r="M12" s="7">
         <v>502</v>
@@ -7722,13 +7707,13 @@
         <v>254076</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,7 +7769,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7796,13 +7781,13 @@
         <v>2062</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>483</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -7811,13 +7796,13 @@
         <v>5486</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -7826,13 +7811,13 @@
         <v>7547</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>485</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>486</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +7832,13 @@
         <v>4809</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H15" s="7">
         <v>29</v>
@@ -7862,13 +7847,13 @@
         <v>17366</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M15" s="7">
         <v>36</v>
@@ -7877,13 +7862,13 @@
         <v>22175</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>494</v>
+        <v>272</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +7883,13 @@
         <v>645</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>495</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7913,13 +7898,13 @@
         <v>1689</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>331</v>
+        <v>490</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -7928,13 +7913,13 @@
         <v>2334</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7949,13 +7934,13 @@
         <v>166331</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="H17" s="7">
         <v>407</v>
@@ -7964,13 +7949,13 @@
         <v>218354</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M17" s="7">
         <v>650</v>
@@ -7979,13 +7964,13 @@
         <v>384685</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,7 +8044,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -8068,13 +8053,13 @@
         <v>4869</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -8083,13 +8068,13 @@
         <v>4869</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8089,13 @@
         <v>2589</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>508</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>510</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -8119,13 +8104,13 @@
         <v>6680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>511</v>
+        <v>197</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -8134,13 +8119,13 @@
         <v>9268</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,13 +8140,13 @@
         <v>1404</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -8170,13 +8155,13 @@
         <v>2696</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>515</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -8185,13 +8170,13 @@
         <v>4100</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8206,13 +8191,13 @@
         <v>144197</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H22" s="7">
         <v>268</v>
@@ -8221,13 +8206,13 @@
         <v>266869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M22" s="7">
         <v>456</v>
@@ -8236,13 +8221,13 @@
         <v>411068</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>312</v>
+        <v>521</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>524</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +8295,13 @@
         <v>1444</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>250</v>
+        <v>523</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -8325,13 +8310,13 @@
         <v>3997</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>120</v>
+        <v>524</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>526</v>
+        <v>491</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -8340,13 +8325,13 @@
         <v>5441</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>386</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,13 +8346,13 @@
         <v>1883</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -8376,13 +8361,13 @@
         <v>15000</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -8391,10 +8376,10 @@
         <v>16883</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>530</v>
@@ -8418,7 +8403,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>454</v>
+        <v>337</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -8427,13 +8412,13 @@
         <v>3362</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>117</v>
+        <v>532</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>467</v>
+        <v>239</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -8442,13 +8427,13 @@
         <v>4215</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>532</v>
+        <v>91</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>393</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8463,13 +8448,13 @@
         <v>216064</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H27" s="7">
         <v>489</v>
@@ -8478,10 +8463,10 @@
         <v>287194</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>537</v>
+        <v>350</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>538</v>
@@ -8567,10 +8552,10 @@
         <v>5360</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>388</v>
+        <v>268</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>542</v>
@@ -8600,10 +8585,10 @@
         <v>545</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,13 +8603,13 @@
         <v>12184</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H30" s="7">
         <v>89</v>
@@ -8633,13 +8618,13 @@
         <v>51679</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>267</v>
+        <v>510</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M30" s="7">
         <v>106</v>
@@ -8648,13 +8633,13 @@
         <v>63864</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>550</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>551</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8669,13 +8654,13 @@
         <v>2902</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>404</v>
+        <v>99</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -8684,13 +8669,13 @@
         <v>9895</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>553</v>
+        <v>509</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>40</v>
+        <v>551</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -8699,13 +8684,13 @@
         <v>12797</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8720,13 +8705,13 @@
         <v>676474</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>109</v>
+        <v>552</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>555</v>
+        <v>136</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>556</v>
+        <v>28</v>
       </c>
       <c r="H32" s="7">
         <v>1571</v>
@@ -8735,13 +8720,13 @@
         <v>947611</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="M32" s="7">
         <v>2567</v>
@@ -8750,13 +8735,13 @@
         <v>1624086</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>560</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8812,7 +8797,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5416-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A613968E-0AF0-4B93-ADB7-5E440EEAAB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80708EC2-4A8D-469A-A905-AFBC98C5D59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{31CD7D93-0D8B-4C78-A41F-D983E9BDF961}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0628BDAA-CE9D-4570-9E64-5E7B28C4D8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="561">
   <si>
     <t>Población según si es capaz de moverse por su casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Necesita ayuda</t>
@@ -95,13 +95,13 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>20,56%</t>
+    <t>20,17%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>10,77%</t>
+    <t>9,95%</t>
   </si>
   <si>
     <t>En silla ruedas sin ayuda</t>
@@ -122,16 +122,16 @@
     <t>95,89%</t>
   </si>
   <si>
-    <t>79,44%</t>
+    <t>79,83%</t>
   </si>
   <si>
     <t>98,03%</t>
   </si>
   <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,02%</t>
@@ -140,40 +140,40 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>6,58%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,78%</t>
+    <t>3,93%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>1,55%</t>
@@ -185,1528 +185,1543 @@
     <t>93,77%</t>
   </si>
   <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>93,81%</t>
   </si>
   <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>3,27%</t>
+    <t>3,6%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>95,38%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BBAE67-BDB8-4B81-AB8B-DD427EFDDA9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03C3145-937D-4BB3-8DA7-12A26D775650}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2679,7 +2694,7 @@
         <v>204</v>
       </c>
       <c r="N12" s="7">
-        <v>200559</v>
+        <v>200558</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>53</v>
@@ -2730,7 +2745,7 @@
         <v>217</v>
       </c>
       <c r="N13" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>25</v>
@@ -2840,10 +2855,10 @@
         <v>68</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2873,13 @@
         <v>868</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2873,13 +2888,13 @@
         <v>2327</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2888,13 +2903,13 @@
         <v>3195</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2924,13 @@
         <v>141896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>159</v>
@@ -2927,10 +2942,10 @@
         <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>301</v>
@@ -2939,13 +2954,13 @@
         <v>313246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,7 +3085,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3079,13 +3094,13 @@
         <v>4750</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -3094,13 +3109,13 @@
         <v>6670</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3145,13 @@
         <v>1125</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -3145,13 +3160,13 @@
         <v>1125</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,10 +3181,10 @@
         <v>102451</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -3181,13 +3196,13 @@
         <v>127144</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>232</v>
@@ -3196,13 +3211,13 @@
         <v>229595</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3273,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3270,13 +3285,13 @@
         <v>1669</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3285,13 +3300,13 @@
         <v>3118</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -3300,13 +3315,13 @@
         <v>4787</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3336,13 @@
         <v>810</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3336,13 +3351,13 @@
         <v>2057</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3351,13 +3366,13 @@
         <v>2867</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,7 +3393,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3387,13 +3402,13 @@
         <v>3259</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3402,13 +3417,13 @@
         <v>3259</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3438,13 @@
         <v>134738</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H27" s="7">
         <v>192</v>
@@ -3438,13 +3453,13 @@
         <v>200343</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>345</v>
@@ -3453,13 +3468,13 @@
         <v>335082</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3542,13 @@
         <v>2725</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -3542,13 +3557,13 @@
         <v>9515</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -3557,13 +3572,13 @@
         <v>12240</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3593,13 @@
         <v>10320</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -3593,13 +3608,13 @@
         <v>20990</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -3608,13 +3623,13 @@
         <v>31310</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3644,13 @@
         <v>868</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -3644,13 +3659,13 @@
         <v>6710</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -3659,13 +3674,13 @@
         <v>7578</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3695,13 @@
         <v>488553</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H32" s="7">
         <v>626</v>
@@ -3695,13 +3710,13 @@
         <v>639627</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M32" s="7">
         <v>1134</v>
@@ -3710,13 +3725,13 @@
         <v>1128180</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,7 +3808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26E5EEC-6EF3-4DAA-99D5-9A5BC2722DE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351EADA0-2A5F-4AF7-8034-E9C6D362AD34}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4174,13 +4189,13 @@
         <v>2125</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -4189,13 +4204,13 @@
         <v>3166</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -4204,7 +4219,7 @@
         <v>5292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>189</v>
@@ -4485,10 +4500,10 @@
         <v>218</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -4497,13 +4512,13 @@
         <v>11044</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -4512,13 +4527,13 @@
         <v>15478</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4548,13 @@
         <v>1101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4548,13 +4563,13 @@
         <v>1149</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4563,13 +4578,13 @@
         <v>2250</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4599,13 @@
         <v>144049</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -4599,13 +4614,13 @@
         <v>170386</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>286</v>
@@ -4703,7 +4718,7 @@
         <v>7688</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>239</v>
@@ -4769,10 +4784,10 @@
         <v>7470</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>250</v>
@@ -4820,13 +4835,13 @@
         <v>3377</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4856,13 @@
         <v>98099</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H22" s="7">
         <v>117</v>
@@ -4856,13 +4871,13 @@
         <v>126921</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7">
         <v>203</v>
@@ -4871,13 +4886,13 @@
         <v>225020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,7 +4948,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4945,13 +4960,13 @@
         <v>957</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -4960,10 +4975,10 @@
         <v>6323</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>266</v>
+        <v>98</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>267</v>
@@ -4975,13 +4990,13 @@
         <v>7280</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +5011,13 @@
         <v>3034</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5011,13 +5026,13 @@
         <v>9230</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5026,13 +5041,13 @@
         <v>12263</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5062,13 @@
         <v>986</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5062,13 +5077,13 @@
         <v>2176</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5077,13 +5092,13 @@
         <v>3162</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5113,13 @@
         <v>156637</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H27" s="7">
         <v>214</v>
@@ -5113,13 +5128,13 @@
         <v>226021</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M27" s="7">
         <v>356</v>
@@ -5128,13 +5143,13 @@
         <v>382657</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5217,13 @@
         <v>9438</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -5217,13 +5232,13 @@
         <v>27149</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -5232,13 +5247,13 @@
         <v>36587</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>132</v>
+        <v>295</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5268,13 @@
         <v>11754</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>296</v>
+        <v>122</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -5268,13 +5283,13 @@
         <v>35043</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -5283,13 +5298,13 @@
         <v>46797</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>301</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>154</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5319,13 @@
         <v>4355</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -5319,13 +5334,13 @@
         <v>4434</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>304</v>
+        <v>142</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -5337,10 +5352,10 @@
         <v>59</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5370,13 @@
         <v>534090</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>206</v>
+        <v>309</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H32" s="7">
         <v>633</v>
@@ -5370,13 +5385,13 @@
         <v>676349</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M32" s="7">
         <v>1114</v>
@@ -5385,13 +5400,13 @@
         <v>1210439</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,7 +5483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78140B4-4F9F-4D9F-9FAC-7DCB21CEDB0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253129CF-90D8-4323-A4EF-D6973D17E7D8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5485,7 +5500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5592,13 +5607,13 @@
         <v>999</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5613,7 +5628,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5622,13 +5637,13 @@
         <v>999</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5679,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5679,7 +5694,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5709,13 @@
         <v>845</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>322</v>
+        <v>114</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5715,7 +5730,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5730,7 +5745,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,10 +5760,10 @@
         <v>19845</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
@@ -5763,7 +5778,7 @@
         <v>23</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>25</v>
@@ -5775,10 +5790,10 @@
         <v>43284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>23</v>
@@ -5849,13 +5864,13 @@
         <v>2507</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>331</v>
+        <v>61</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>220</v>
+        <v>332</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5870,7 +5885,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -5882,7 +5897,7 @@
         <v>333</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>334</v>
@@ -5900,13 +5915,13 @@
         <v>4194</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5915,13 +5930,13 @@
         <v>6940</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5930,13 +5945,13 @@
         <v>11134</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,13 +5966,13 @@
         <v>959</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5966,13 +5981,13 @@
         <v>1131</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>342</v>
+        <v>144</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -5987,7 +6002,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +6017,13 @@
         <v>107386</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H12" s="7">
         <v>126</v>
@@ -6017,28 +6032,28 @@
         <v>139560</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M12" s="7">
         <v>241</v>
       </c>
       <c r="N12" s="7">
-        <v>246946</v>
+        <v>246947</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,7 +6095,7 @@
         <v>259</v>
       </c>
       <c r="N13" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>25</v>
@@ -6106,13 +6121,13 @@
         <v>1824</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6121,13 +6136,13 @@
         <v>4530</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -6136,13 +6151,13 @@
         <v>6353</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6172,13 @@
         <v>5877</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>193</v>
+        <v>363</v>
       </c>
       <c r="H15" s="7">
         <v>11</v>
@@ -6172,13 +6187,13 @@
         <v>13722</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M15" s="7">
         <v>18</v>
@@ -6187,13 +6202,13 @@
         <v>19598</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,7 +6229,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6223,13 +6238,13 @@
         <v>1187</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -6238,13 +6253,13 @@
         <v>1187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6274,13 @@
         <v>157241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H17" s="7">
         <v>167</v>
@@ -6274,13 +6289,13 @@
         <v>199725</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>333</v>
@@ -6289,13 +6304,13 @@
         <v>356965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,7 +6384,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>378</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6378,13 +6393,13 @@
         <v>3889</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -6393,13 +6408,13 @@
         <v>3889</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>119</v>
+        <v>383</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>381</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6429,13 @@
         <v>3512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>186</v>
+        <v>291</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -6429,13 +6444,13 @@
         <v>11707</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -6444,13 +6459,13 @@
         <v>15219</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,7 +6486,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>378</v>
+        <v>40</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6486,7 +6501,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6501,7 +6516,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,13 +6531,13 @@
         <v>111523</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H22" s="7">
         <v>106</v>
@@ -6531,13 +6546,13 @@
         <v>127000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>287</v>
+        <v>395</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M22" s="7">
         <v>216</v>
@@ -6546,13 +6561,13 @@
         <v>238522</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,7 +6623,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6626,7 +6641,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -6641,7 +6656,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>400</v>
+        <v>94</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -6650,13 +6665,13 @@
         <v>2467</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>401</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,13 +6686,13 @@
         <v>3616</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>402</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6686,10 +6701,10 @@
         <v>11708</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>405</v>
@@ -6701,13 +6716,13 @@
         <v>15324</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6722,13 +6737,13 @@
         <v>1664</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6758,7 +6773,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>412</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,13 +6788,13 @@
         <v>169338</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H27" s="7">
         <v>187</v>
@@ -6788,13 +6803,13 @@
         <v>228606</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>417</v>
-      </c>
       <c r="L27" s="7" t="s">
-        <v>418</v>
+        <v>137</v>
       </c>
       <c r="M27" s="7">
         <v>372</v>
@@ -6803,13 +6818,13 @@
         <v>397945</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6877,13 +6892,13 @@
         <v>5329</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>266</v>
+        <v>419</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -6898,7 +6913,7 @@
         <v>422</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>226</v>
+        <v>423</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -6907,13 +6922,13 @@
         <v>18534</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>304</v>
+        <v>69</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>189</v>
+        <v>424</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>423</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,13 +6943,13 @@
         <v>17199</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="H30" s="7">
         <v>35</v>
@@ -6943,10 +6958,10 @@
         <v>44077</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>426</v>
+        <v>178</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>427</v>
@@ -6961,10 +6976,10 @@
         <v>428</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>341</v>
+        <v>429</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,13 +6994,13 @@
         <v>3468</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>430</v>
+        <v>305</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>247</v>
+        <v>142</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -7000,7 +7015,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>147</v>
+        <v>432</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -7009,13 +7024,13 @@
         <v>5786</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>303</v>
+        <v>141</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,13 +7045,13 @@
         <v>565332</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H32" s="7">
         <v>608</v>
@@ -7045,13 +7060,13 @@
         <v>718330</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>169</v>
+        <v>439</v>
       </c>
       <c r="M32" s="7">
         <v>1206</v>
@@ -7060,13 +7075,13 @@
         <v>1283663</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,7 +7158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F439D9B6-7DC9-4DED-9598-D8FE5CEB4A21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824F976B-BD51-4F5A-934F-48E53842BFA5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7160,7 +7175,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7267,13 +7282,13 @@
         <v>374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7282,13 +7297,13 @@
         <v>484</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -7297,13 +7312,13 @@
         <v>858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>446</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7333,13 +7348,13 @@
         <v>2685</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -7351,10 +7366,10 @@
         <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,13 +7399,13 @@
         <v>543</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -7405,7 +7420,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7420,10 +7435,10 @@
         <v>29290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
@@ -7435,13 +7450,13 @@
         <v>41709</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M7" s="7">
         <v>150</v>
@@ -7450,13 +7465,13 @@
         <v>70999</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>461</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7524,13 +7539,13 @@
         <v>1481</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>460</v>
+        <v>159</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -7539,13 +7554,13 @@
         <v>2181</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>462</v>
+        <v>142</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>463</v>
+        <v>118</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -7554,13 +7569,13 @@
         <v>3662</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>304</v>
+        <v>69</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7575,13 +7590,13 @@
         <v>2904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>104</v>
+        <v>466</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>467</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -7590,13 +7605,13 @@
         <v>9949</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -7605,13 +7620,13 @@
         <v>12853</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,7 +7647,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -7641,10 +7656,10 @@
         <v>1605</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>68</v>
@@ -7656,13 +7671,13 @@
         <v>1605</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,13 +7692,13 @@
         <v>120592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H12" s="7">
         <v>303</v>
@@ -7692,13 +7707,13 @@
         <v>133484</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M12" s="7">
         <v>502</v>
@@ -7707,13 +7722,13 @@
         <v>254076</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,13 +7796,13 @@
         <v>2062</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>460</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>483</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -7796,13 +7811,13 @@
         <v>5486</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>486</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -7814,10 +7829,10 @@
         <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,13 +7847,13 @@
         <v>4809</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="H15" s="7">
         <v>29</v>
@@ -7847,13 +7862,13 @@
         <v>17366</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>487</v>
+        <v>339</v>
       </c>
       <c r="M15" s="7">
         <v>36</v>
@@ -7862,13 +7877,13 @@
         <v>22175</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>488</v>
+        <v>267</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +7913,13 @@
         <v>1689</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -7913,10 +7928,10 @@
         <v>2334</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>421</v>
@@ -7934,13 +7949,13 @@
         <v>166331</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>493</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H17" s="7">
         <v>407</v>
@@ -7949,13 +7964,13 @@
         <v>218354</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M17" s="7">
         <v>650</v>
@@ -7964,13 +7979,13 @@
         <v>384685</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,7 +8059,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -8053,13 +8068,13 @@
         <v>4869</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -8068,13 +8083,13 @@
         <v>4869</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>506</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,13 +8104,13 @@
         <v>2589</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>507</v>
+        <v>146</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>508</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>509</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -8104,13 +8119,13 @@
         <v>6680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>197</v>
+        <v>510</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>510</v>
+        <v>273</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -8119,13 +8134,13 @@
         <v>9268</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,13 +8155,13 @@
         <v>1404</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -8161,7 +8176,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -8170,13 +8185,13 @@
         <v>4100</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>460</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8191,13 +8206,13 @@
         <v>144197</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H22" s="7">
         <v>268</v>
@@ -8206,10 +8221,10 @@
         <v>266869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>518</v>
+        <v>438</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>519</v>
@@ -8227,7 +8242,7 @@
         <v>521</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8283,7 +8298,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8295,13 +8310,13 @@
         <v>1444</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -8310,13 +8325,13 @@
         <v>3997</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>249</v>
+        <v>523</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>524</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -8325,10 +8340,10 @@
         <v>5441</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>93</v>
@@ -8349,7 +8364,7 @@
         <v>526</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>175</v>
@@ -8364,7 +8379,7 @@
         <v>527</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>528</v>
@@ -8379,7 +8394,7 @@
         <v>529</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>530</v>
@@ -8403,7 +8418,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>337</v>
+        <v>532</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -8412,13 +8427,13 @@
         <v>3362</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>239</v>
+        <v>534</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -8433,7 +8448,7 @@
         <v>91</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8448,13 +8463,13 @@
         <v>216064</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H27" s="7">
         <v>489</v>
@@ -8463,13 +8478,13 @@
         <v>287194</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>350</v>
+        <v>540</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="M27" s="7">
         <v>809</v>
@@ -8478,13 +8493,13 @@
         <v>503258</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8552,13 +8567,13 @@
         <v>5360</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -8567,13 +8582,13 @@
         <v>17017</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="M29" s="7">
         <v>39</v>
@@ -8582,13 +8597,13 @@
         <v>22377</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>401</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8603,13 +8618,13 @@
         <v>12184</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>507</v>
+        <v>146</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H30" s="7">
         <v>89</v>
@@ -8618,13 +8633,13 @@
         <v>51679</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>510</v>
+        <v>273</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>278</v>
+        <v>551</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="M30" s="7">
         <v>106</v>
@@ -8633,10 +8648,10 @@
         <v>63864</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>212</v>
@@ -8654,13 +8669,13 @@
         <v>2902</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>99</v>
+        <v>556</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -8672,10 +8687,10 @@
         <v>410</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>551</v>
+        <v>338</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -8684,13 +8699,13 @@
         <v>12797</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>402</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8705,10 +8720,10 @@
         <v>676474</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>28</v>
@@ -8720,13 +8735,13 @@
         <v>947611</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>139</v>
+        <v>461</v>
       </c>
       <c r="M32" s="7">
         <v>2567</v>
@@ -8735,13 +8750,13 @@
         <v>1624086</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>554</v>
+        <v>168</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>263</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5416-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80708EC2-4A8D-469A-A905-AFBC98C5D59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{871624C6-6933-4F19-B33A-CF7713285E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0628BDAA-CE9D-4570-9E64-5E7B28C4D8E7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CA0CDB29-B05F-4C8A-93DC-C55E6B21170B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -95,13 +95,13 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>20,17%</t>
+    <t>20,56%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>9,95%</t>
+    <t>10,09%</t>
   </si>
   <si>
     <t>En silla ruedas sin ayuda</t>
@@ -122,13 +122,13 @@
     <t>95,89%</t>
   </si>
   <si>
-    <t>79,83%</t>
+    <t>79,44%</t>
   </si>
   <si>
     <t>98,03%</t>
   </si>
   <si>
-    <t>90,05%</t>
+    <t>89,91%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -140,1588 +140,1588 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>6,48%</t>
+    <t>6,58%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,93%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
   <si>
     <t>94,25%</t>
   </si>
   <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03C3145-937D-4BB3-8DA7-12A26D775650}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFF5A47-A79E-47A9-B324-5F4735F70569}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2601,7 +2601,7 @@
         <v>43</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,13 +2667,13 @@
         <v>83093</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H12" s="7">
         <v>116</v>
@@ -2682,13 +2682,13 @@
         <v>117466</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M12" s="7">
         <v>204</v>
@@ -2697,13 +2697,13 @@
         <v>200558</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2759,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2771,13 +2771,13 @@
         <v>1056</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2786,13 +2786,13 @@
         <v>1224</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2801,13 +2801,13 @@
         <v>2280</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2822,13 @@
         <v>2069</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -2837,13 +2837,13 @@
         <v>7779</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -2852,13 +2852,13 @@
         <v>9848</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2873,13 @@
         <v>868</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2888,13 +2888,13 @@
         <v>2327</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2903,13 +2903,13 @@
         <v>3195</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2924,13 @@
         <v>141896</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>159</v>
@@ -2939,13 +2939,13 @@
         <v>171351</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>301</v>
@@ -2954,13 +2954,13 @@
         <v>313246</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,7 +3085,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3094,13 +3094,13 @@
         <v>4750</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -3109,13 +3109,13 @@
         <v>6670</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3145,13 @@
         <v>1125</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -3160,13 +3160,13 @@
         <v>1125</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,10 +3181,10 @@
         <v>102451</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -3196,13 +3196,13 @@
         <v>127144</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>232</v>
@@ -3211,13 +3211,13 @@
         <v>229595</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,7 +3273,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3285,13 +3285,13 @@
         <v>1669</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3300,13 +3300,13 @@
         <v>3118</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -3315,13 +3315,13 @@
         <v>4787</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3336,13 @@
         <v>810</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3351,13 +3351,13 @@
         <v>2057</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3366,13 +3366,13 @@
         <v>2867</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,7 +3393,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3402,13 +3402,13 @@
         <v>3259</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3417,13 +3417,13 @@
         <v>3259</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3438,13 @@
         <v>134738</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H27" s="7">
         <v>192</v>
@@ -3453,13 +3453,13 @@
         <v>200343</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M27" s="7">
         <v>345</v>
@@ -3468,13 +3468,13 @@
         <v>335082</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,13 +3542,13 @@
         <v>2725</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -3557,13 +3557,13 @@
         <v>9515</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -3572,13 +3572,13 @@
         <v>12240</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3593,13 @@
         <v>10320</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -3608,13 +3608,13 @@
         <v>20990</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -3623,13 +3623,13 @@
         <v>31310</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3644,13 @@
         <v>868</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -3659,13 +3659,13 @@
         <v>6710</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -3674,13 +3674,13 @@
         <v>7578</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3695,13 @@
         <v>488553</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H32" s="7">
         <v>626</v>
@@ -3710,13 +3710,13 @@
         <v>639627</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M32" s="7">
         <v>1134</v>
@@ -3725,13 +3725,13 @@
         <v>1128180</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,7 +3787,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3808,7 +3808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351EADA0-2A5F-4AF7-8034-E9C6D362AD34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E55E2B4-051F-48C0-9180-1DC7E70CC6D1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3825,7 +3825,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3938,7 +3938,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3947,13 +3947,13 @@
         <v>1131</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3962,13 +3962,13 @@
         <v>1131</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,7 +3989,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,7 +4040,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,7 +4088,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>25</v>
@@ -4100,10 +4100,10 @@
         <v>24063</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>23</v>
@@ -4115,10 +4115,10 @@
         <v>45261</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>23</v>
@@ -4189,13 +4189,13 @@
         <v>2125</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -4204,13 +4204,13 @@
         <v>3166</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -4219,13 +4219,13 @@
         <v>5292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4240,13 @@
         <v>2118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4255,13 +4255,13 @@
         <v>9467</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4270,13 +4270,13 @@
         <v>11585</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,7 +4297,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4312,7 +4312,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4342,13 @@
         <v>114107</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H12" s="7">
         <v>122</v>
@@ -4357,13 +4357,13 @@
         <v>128959</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M12" s="7">
         <v>223</v>
@@ -4372,13 +4372,13 @@
         <v>243066</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,7 +4434,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4446,13 +4446,13 @@
         <v>5294</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4461,13 +4461,13 @@
         <v>8841</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -4476,13 +4476,13 @@
         <v>14135</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4497,13 @@
         <v>4435</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -4512,13 +4512,13 @@
         <v>11044</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -4527,13 +4527,13 @@
         <v>15478</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4548,13 @@
         <v>1101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4563,13 +4563,13 @@
         <v>1149</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4578,13 +4578,13 @@
         <v>2250</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>227</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4599,13 @@
         <v>144049</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -4614,13 +4614,13 @@
         <v>170386</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>286</v>
@@ -4629,13 +4629,13 @@
         <v>314435</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4703,13 @@
         <v>1062</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4718,13 +4718,13 @@
         <v>7688</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4733,13 +4733,13 @@
         <v>8750</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4754,13 @@
         <v>2169</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -4769,13 +4769,13 @@
         <v>5302</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -4784,13 +4784,13 @@
         <v>7470</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4805,13 @@
         <v>2269</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -4820,13 +4820,13 @@
         <v>1109</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -4835,13 +4835,13 @@
         <v>3377</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4856,13 @@
         <v>98099</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H22" s="7">
         <v>117</v>
@@ -4871,13 +4871,13 @@
         <v>126921</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M22" s="7">
         <v>203</v>
@@ -4886,13 +4886,13 @@
         <v>225020</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,7 +4948,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4960,13 +4960,13 @@
         <v>957</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -4975,13 +4975,13 @@
         <v>6323</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -4990,13 +4990,13 @@
         <v>7280</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5011,13 @@
         <v>3034</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5026,13 +5026,13 @@
         <v>9230</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5041,13 +5041,13 @@
         <v>12263</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>272</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>273</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5062,13 @@
         <v>986</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5077,13 +5077,13 @@
         <v>2176</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5092,13 +5092,13 @@
         <v>3162</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5113,13 @@
         <v>156637</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H27" s="7">
         <v>214</v>
@@ -5128,13 +5128,13 @@
         <v>226021</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="M27" s="7">
         <v>356</v>
@@ -5143,13 +5143,13 @@
         <v>382657</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5217,13 @@
         <v>9438</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>292</v>
+        <v>67</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -5232,13 +5232,13 @@
         <v>27149</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -5247,13 +5247,13 @@
         <v>36587</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>19</v>
+        <v>293</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5268,13 @@
         <v>11754</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -5283,13 +5283,13 @@
         <v>35043</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -5298,13 +5298,13 @@
         <v>46797</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5319,13 @@
         <v>4355</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -5334,13 +5334,13 @@
         <v>4434</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -5349,13 +5349,13 @@
         <v>8789</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5370,13 @@
         <v>534090</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H32" s="7">
         <v>633</v>
@@ -5385,13 +5385,13 @@
         <v>676349</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M32" s="7">
         <v>1114</v>
@@ -5400,13 +5400,13 @@
         <v>1210439</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,7 +5462,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5483,7 +5483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253129CF-90D8-4323-A4EF-D6973D17E7D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399D2516-E598-4FD9-AABA-C8C9DE47C3E4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5500,7 +5500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5607,13 +5607,13 @@
         <v>999</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5637,13 +5637,13 @@
         <v>999</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5664,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5694,7 +5694,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>323</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5709,13 @@
         <v>845</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>114</v>
+        <v>322</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5745,7 +5745,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,10 +5760,10 @@
         <v>19845</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
@@ -5778,7 +5778,7 @@
         <v>23</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>25</v>
@@ -5790,10 +5790,10 @@
         <v>43284</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>23</v>
@@ -5864,10 +5864,10 @@
         <v>2507</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>332</v>
@@ -5879,13 +5879,13 @@
         <v>2320</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -5897,7 +5897,7 @@
         <v>333</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>274</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>334</v>
@@ -5915,7 +5915,7 @@
         <v>4194</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>335</v>
@@ -5933,10 +5933,10 @@
         <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5945,13 +5945,13 @@
         <v>11134</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5966,13 @@
         <v>959</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5981,7 +5981,7 @@
         <v>1131</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
@@ -5996,7 +5996,7 @@
         <v>2090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
@@ -6044,7 +6044,7 @@
         <v>241</v>
       </c>
       <c r="N12" s="7">
-        <v>246947</v>
+        <v>246946</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>352</v>
@@ -6095,7 +6095,7 @@
         <v>259</v>
       </c>
       <c r="N13" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>25</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6121,13 +6121,13 @@
         <v>1824</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6136,10 +6136,10 @@
         <v>4530</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>357</v>
@@ -6238,13 +6238,13 @@
         <v>1187</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -6253,13 +6253,13 @@
         <v>1187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>45</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6274,13 @@
         <v>157241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H17" s="7">
         <v>167</v>
@@ -6289,13 +6289,13 @@
         <v>199725</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M17" s="7">
         <v>333</v>
@@ -6304,13 +6304,13 @@
         <v>356965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,7 +6384,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6393,13 +6393,13 @@
         <v>3889</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -6408,13 +6408,13 @@
         <v>3889</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6429,13 @@
         <v>3512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>291</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -6444,13 +6444,13 @@
         <v>11707</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>385</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>386</v>
+        <v>59</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -6459,13 +6459,13 @@
         <v>15219</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,7 +6486,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6501,7 +6501,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6516,7 +6516,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,13 +6531,13 @@
         <v>111523</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
         <v>106</v>
@@ -6546,13 +6546,13 @@
         <v>127000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M22" s="7">
         <v>216</v>
@@ -6561,13 +6561,13 @@
         <v>238522</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,7 +6623,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6641,7 +6641,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -6650,13 +6650,13 @@
         <v>2467</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -6665,13 +6665,13 @@
         <v>2467</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>280</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,13 +6686,13 @@
         <v>3616</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6701,13 +6701,13 @@
         <v>11708</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -6716,13 +6716,13 @@
         <v>15324</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>268</v>
+        <v>410</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>406</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,13 +6737,13 @@
         <v>1664</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6758,7 +6758,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -6767,13 +6767,13 @@
         <v>1664</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>335</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,13 +6788,13 @@
         <v>169338</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H27" s="7">
         <v>187</v>
@@ -6803,13 +6803,13 @@
         <v>228606</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="M27" s="7">
         <v>372</v>
@@ -6818,13 +6818,13 @@
         <v>397945</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6892,13 @@
         <v>5329</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -6907,13 +6907,13 @@
         <v>13205</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>423</v>
+        <v>271</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -6922,13 +6922,13 @@
         <v>18534</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>69</v>
+        <v>428</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>424</v>
+        <v>277</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>341</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +6943,13 @@
         <v>17199</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>190</v>
+        <v>431</v>
       </c>
       <c r="H30" s="7">
         <v>35</v>
@@ -6958,13 +6958,13 @@
         <v>44077</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -6973,13 +6973,13 @@
         <v>61276</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,13 +6994,13 @@
         <v>3468</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -7009,13 +7009,13 @@
         <v>2318</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>432</v>
+        <v>130</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -7024,13 +7024,13 @@
         <v>5786</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>141</v>
+        <v>304</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>276</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +7045,13 @@
         <v>565332</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="H32" s="7">
         <v>608</v>
@@ -7060,13 +7060,13 @@
         <v>718330</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M32" s="7">
         <v>1206</v>
@@ -7075,13 +7075,13 @@
         <v>1283663</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,7 +7137,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -7158,7 +7158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824F976B-BD51-4F5A-934F-48E53842BFA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35280B6A-1C39-469C-A3DE-5739FFE5D75C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7175,7 +7175,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7282,13 +7282,13 @@
         <v>374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7297,13 +7297,13 @@
         <v>484</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>447</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -7312,13 +7312,13 @@
         <v>858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,7 +7339,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -7348,13 +7348,13 @@
         <v>2685</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -7363,13 +7363,13 @@
         <v>2685</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,7 +7390,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -7399,13 +7399,13 @@
         <v>543</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -7414,13 +7414,13 @@
         <v>543</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7435,10 +7435,10 @@
         <v>29290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>457</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>23</v>
@@ -7450,13 +7450,13 @@
         <v>41709</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M7" s="7">
         <v>150</v>
@@ -7465,13 +7465,13 @@
         <v>70999</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7539,13 +7539,13 @@
         <v>1481</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>464</v>
+        <v>265</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -7554,13 +7554,13 @@
         <v>2181</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>142</v>
+        <v>454</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>94</v>
+        <v>466</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -7569,13 +7569,13 @@
         <v>3662</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>69</v>
+        <v>428</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>465</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,13 +7590,13 @@
         <v>2904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -7605,13 +7605,13 @@
         <v>9949</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -7620,10 +7620,10 @@
         <v>12853</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>471</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>472</v>
@@ -7662,7 +7662,7 @@
         <v>474</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -7671,13 +7671,13 @@
         <v>1605</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>305</v>
+        <v>475</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7692,13 +7692,13 @@
         <v>120592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H12" s="7">
         <v>303</v>
@@ -7707,13 +7707,13 @@
         <v>133484</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>481</v>
+        <v>106</v>
       </c>
       <c r="M12" s="7">
         <v>502</v>
@@ -7728,7 +7728,7 @@
         <v>482</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,7 +7784,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -7796,10 +7796,10 @@
         <v>2062</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>159</v>
+        <v>474</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>483</v>
@@ -7814,10 +7814,10 @@
         <v>484</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>486</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -7826,13 +7826,13 @@
         <v>7547</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>485</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,7 +7868,7 @@
         <v>491</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>339</v>
+        <v>492</v>
       </c>
       <c r="M15" s="7">
         <v>36</v>
@@ -7877,13 +7877,13 @@
         <v>22175</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>267</v>
+        <v>493</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>270</v>
+        <v>494</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>492</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +7898,13 @@
         <v>645</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>495</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7913,13 +7913,13 @@
         <v>1689</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>493</v>
+        <v>331</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -7928,13 +7928,13 @@
         <v>2334</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7949,13 +7949,13 @@
         <v>166331</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>498</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H17" s="7">
         <v>407</v>
@@ -7964,13 +7964,13 @@
         <v>218354</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="M17" s="7">
         <v>650</v>
@@ -7979,13 +7979,13 @@
         <v>384685</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,7 +8059,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -8068,13 +8068,13 @@
         <v>4869</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -8083,13 +8083,13 @@
         <v>4869</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8104,13 @@
         <v>2589</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>146</v>
+        <v>509</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>508</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -8119,13 +8119,13 @@
         <v>6680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>273</v>
+        <v>513</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -8134,13 +8134,13 @@
         <v>9268</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>512</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8155,13 +8155,13 @@
         <v>1404</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -8170,13 +8170,13 @@
         <v>2696</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>515</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>381</v>
+        <v>300</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -8185,13 +8185,13 @@
         <v>4100</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8206,13 +8206,13 @@
         <v>144197</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H22" s="7">
         <v>268</v>
@@ -8221,13 +8221,13 @@
         <v>266869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>438</v>
+        <v>521</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="M22" s="7">
         <v>456</v>
@@ -8236,13 +8236,13 @@
         <v>411068</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>521</v>
+        <v>312</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8298,7 +8298,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8310,13 +8310,13 @@
         <v>1444</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>88</v>
+        <v>525</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>522</v>
+        <v>250</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -8325,13 +8325,13 @@
         <v>3997</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>523</v>
+        <v>248</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>524</v>
+        <v>120</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -8340,13 +8340,13 @@
         <v>5441</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>525</v>
+        <v>386</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,13 +8361,13 @@
         <v>1883</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -8376,13 +8376,13 @@
         <v>15000</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>528</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -8391,10 +8391,10 @@
         <v>16883</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>530</v>
@@ -8418,7 +8418,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>532</v>
+        <v>454</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -8430,10 +8430,10 @@
         <v>370</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>533</v>
+        <v>117</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -8442,13 +8442,13 @@
         <v>4215</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>91</v>
+        <v>532</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>535</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8463,13 +8463,13 @@
         <v>216064</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H27" s="7">
         <v>489</v>
@@ -8478,13 +8478,13 @@
         <v>287194</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M27" s="7">
         <v>809</v>
@@ -8493,13 +8493,13 @@
         <v>503258</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8567,13 +8567,13 @@
         <v>5360</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>291</v>
+        <v>388</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -8582,13 +8582,13 @@
         <v>17017</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="M29" s="7">
         <v>39</v>
@@ -8597,13 +8597,13 @@
         <v>22377</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>549</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,13 +8618,13 @@
         <v>12184</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>146</v>
+        <v>509</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>446</v>
+        <v>546</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H30" s="7">
         <v>89</v>
@@ -8633,13 +8633,13 @@
         <v>51679</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>551</v>
+        <v>265</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="M30" s="7">
         <v>106</v>
@@ -8648,13 +8648,13 @@
         <v>63864</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8669,13 +8669,13 @@
         <v>2902</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>556</v>
+        <v>404</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -8684,13 +8684,13 @@
         <v>9895</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>511</v>
+        <v>553</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>338</v>
+        <v>40</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -8699,13 +8699,13 @@
         <v>12797</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8720,13 +8720,13 @@
         <v>676474</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>557</v>
+        <v>109</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>134</v>
+        <v>555</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>28</v>
+        <v>556</v>
       </c>
       <c r="H32" s="7">
         <v>1571</v>
@@ -8735,13 +8735,13 @@
         <v>947611</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>461</v>
+        <v>254</v>
       </c>
       <c r="M32" s="7">
         <v>2567</v>
@@ -8750,7 +8750,7 @@
         <v>1624086</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>168</v>
+        <v>558</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>559</v>
@@ -8812,7 +8812,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
